--- a/Computational Time VS Vertices Graph.xlsx
+++ b/Computational Time VS Vertices Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Spring 2024\CSE106 Mini Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69574F29-1438-4CB9-BBFE-4064911DD9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3A392C-276F-4D64-99B2-AECFC4F26969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF5A1C95-B996-400E-B641-4C17F2239FFE}"/>
   </bookViews>
@@ -201,45 +201,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Computational Time VS</a:t>
+              <a:t>Computational Time VS Number of Vertices</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t> Number of Vertices</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -256,16 +236,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -296,16 +273,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF5050"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -324,10 +313,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -352,7 +338,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
@@ -367,8 +353,11 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -379,65 +368,10 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10786022831483413"/>
-                  <c:y val="-1.8140278290060992E-2"/>
+                  <c:x val="-7.2345562110418093E-2"/>
+                  <c:y val="-1.795934415080706E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>y = 14.786x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" baseline="30000">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t> - 0.0143x - 5.6</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100" b="0">
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:solidFill>
@@ -453,12 +387,12 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
+                      <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
@@ -531,6 +465,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1459747488"/>
         <c:axId val="1459747072"/>
@@ -561,7 +496,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="22225" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
@@ -571,16 +506,15 @@
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="circle"/>
-                  <c:size val="6"/>
+                  <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
-                    <a:ln w="15875">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="accent1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -602,7 +536,7 @@
                       <a:pPr>
                         <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="dk1">
+                            <a:schemeClr val="tx1">
                               <a:lumMod val="75000"/>
                               <a:lumOff val="25000"/>
                             </a:schemeClr>
@@ -630,7 +564,7 @@
                         <c:spPr>
                           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                             <a:solidFill>
-                              <a:schemeClr val="dk1">
+                              <a:schemeClr val="tx1">
                                 <a:lumMod val="35000"/>
                                 <a:lumOff val="65000"/>
                               </a:schemeClr>
@@ -721,7 +655,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="22225" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3"/>
                     </a:solidFill>
@@ -731,16 +665,15 @@
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="circle"/>
-                  <c:size val="6"/>
+                  <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="accent3"/>
                     </a:solidFill>
-                    <a:ln w="15875">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="accent3"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -762,7 +695,7 @@
                       <a:pPr>
                         <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
-                            <a:schemeClr val="dk1">
+                            <a:schemeClr val="tx1">
                               <a:lumMod val="75000"/>
                               <a:lumOff val="25000"/>
                             </a:schemeClr>
@@ -790,7 +723,7 @@
                         <c:spPr>
                           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                             <a:solidFill>
-                              <a:schemeClr val="dk1">
+                              <a:schemeClr val="tx1">
                                 <a:lumMod val="35000"/>
                                 <a:lumOff val="65000"/>
                               </a:schemeClr>
@@ -870,10 +803,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -881,21 +813,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -903,15 +820,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="0070C0"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
@@ -923,25 +837,8 @@
                     <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Vertices (n)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="0070C0"/>
-                    </a:solidFill>
-                    <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> of Vertices (n)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:solidFill>
-                    <a:srgbClr val="0070C0"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -966,15 +863,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -990,7 +884,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1004,12 +898,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1037,10 +928,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1055,12 +945,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="00B050"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1070,7 +957,7 @@
                 <a:r>
                   <a:rPr lang="en-US">
                     <a:solidFill>
-                      <a:srgbClr val="92D050"/>
+                      <a:srgbClr val="00B050"/>
                     </a:solidFill>
                     <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1101,12 +988,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="00B050"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1135,10 +1019,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1153,23 +1034,41 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1183,11 +1082,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1255,25 +1154,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1281,30 +1180,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1313,13 +1189,36 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -1356,45 +1255,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1406,34 +1295,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1449,15 +1334,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1465,7 +1351,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1477,18 +1363,17 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1497,12 +1382,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1516,14 +1401,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1535,20 +1420,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1556,15 +1434,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1576,15 +1453,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="51000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1596,14 +1472,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1615,12 +1491,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1634,53 +1510,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1692,12 +1550,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1710,13 +1568,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1725,13 +1583,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1740,7 +1599,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1758,14 +1617,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1774,7 +1632,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1786,20 +1644,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -2146,7 +1997,7 @@
   <dimension ref="B3:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
